--- a/Output/Chock_Nacional_2017_68.xlsx
+++ b/Output/Chock_Nacional_2017_68.xlsx
@@ -10,15 +10,16 @@
     <sheet name="ChoqueDemanda" sheetId="1" r:id="rId1"/>
     <sheet name="Oferta" sheetId="2" r:id="rId2"/>
     <sheet name="Impact_VBP" sheetId="3" r:id="rId3"/>
-    <sheet name="Impact_VA" sheetId="4" r:id="rId4"/>
-    <sheet name="Impactos" sheetId="5" r:id="rId5"/>
+    <sheet name="Impact_VA_Sectors" sheetId="4" r:id="rId4"/>
+    <sheet name="Impact_VA_Agg_Sectors" sheetId="5" r:id="rId5"/>
+    <sheet name="Impactos" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="109">
   <si>
     <t>Exportações</t>
   </si>
@@ -334,10 +335,67 @@
     <t>Variação %</t>
   </si>
   <si>
+    <t>Agricultura, inclusive apoio à agricultura e a pós-colheita</t>
+  </si>
+  <si>
+    <t>Pecuária, inclusive apoio à Pecuária</t>
+  </si>
+  <si>
+    <t>Produção florestal, pesca e aquicultura</t>
+  </si>
+  <si>
+    <t>Indústrias extrativas</t>
+  </si>
+  <si>
+    <t>Indústrias de transformação</t>
+  </si>
+  <si>
+    <t>Eletricidade e gás, água, esgoto, atividades de gestão de resíduos e descontaminação</t>
+  </si>
+  <si>
+    <t>Construção</t>
+  </si>
+  <si>
+    <t>Comércio e reparação de veículos automotores e motocicletas</t>
+  </si>
+  <si>
+    <t>Transporte, armazenagem e correio</t>
+  </si>
+  <si>
+    <t>Alojamento e alimentação</t>
+  </si>
+  <si>
+    <t>Informação e comunicação</t>
+  </si>
+  <si>
+    <t>Atividades financeiras, de seguros e serviços relacionados</t>
+  </si>
+  <si>
+    <t>Atividades imobiliárias</t>
+  </si>
+  <si>
+    <t>Atividades profissionais, científicas e técnicas, administrativas e serviços complementares</t>
+  </si>
+  <si>
+    <t>Administração, defesa, educação e saúde públicas e seguridade social</t>
+  </si>
+  <si>
+    <t>Educação e saúde privadas</t>
+  </si>
+  <si>
+    <t>Artes, cultura, esporte e recreação e outras atividades de serviços</t>
+  </si>
+  <si>
+    <t>Serviços domésticos</t>
+  </si>
+  <si>
+    <t>PIB</t>
+  </si>
+  <si>
     <t>VBP</t>
   </si>
   <si>
-    <t>PIB</t>
+    <t>Impostos</t>
   </si>
   <si>
     <t>EOB</t>
@@ -822,7 +880,7 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F5">
         <v>1</v>
@@ -845,7 +903,7 @@
         <v>1</v>
       </c>
       <c r="E6">
-        <v>0.975</v>
+        <v>1.014</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -868,7 +926,7 @@
         <v>1</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F7">
         <v>1</v>
@@ -891,7 +949,7 @@
         <v>1</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>1.028</v>
       </c>
       <c r="F8">
         <v>1</v>
@@ -937,7 +995,7 @@
         <v>1</v>
       </c>
       <c r="E10">
-        <v>0.91</v>
+        <v>1.0297</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -960,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="E11">
-        <v>0.954</v>
+        <v>1.0297</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -983,7 +1041,7 @@
         <v>1</v>
       </c>
       <c r="E12">
-        <v>0.954</v>
+        <v>0.965</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1006,7 +1064,7 @@
         <v>1</v>
       </c>
       <c r="E13">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -1029,7 +1087,7 @@
         <v>1</v>
       </c>
       <c r="E14">
-        <v>0.6325000000000001</v>
+        <v>0.7375</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1052,7 +1110,7 @@
         <v>1</v>
       </c>
       <c r="E15">
-        <v>0.6325000000000001</v>
+        <v>0.7375</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -1075,7 +1133,7 @@
         <v>1</v>
       </c>
       <c r="E16">
-        <v>0.6325000000000001</v>
+        <v>0.7375</v>
       </c>
       <c r="F16">
         <v>1</v>
@@ -1098,7 +1156,7 @@
         <v>1</v>
       </c>
       <c r="E17">
-        <v>0.9625</v>
+        <v>0.945</v>
       </c>
       <c r="F17">
         <v>1</v>
@@ -1121,7 +1179,7 @@
         <v>1</v>
       </c>
       <c r="E18">
-        <v>0.9625</v>
+        <v>0.945</v>
       </c>
       <c r="F18">
         <v>1</v>
@@ -1167,7 +1225,7 @@
         <v>1</v>
       </c>
       <c r="E20">
-        <v>0.8250000000000001</v>
+        <v>0.7867499999999999</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -1190,7 +1248,7 @@
         <v>1</v>
       </c>
       <c r="E21">
-        <v>0.8250000000000001</v>
+        <v>0.7867499999999999</v>
       </c>
       <c r="F21">
         <v>1</v>
@@ -1213,7 +1271,7 @@
         <v>1</v>
       </c>
       <c r="E22">
-        <v>0.975</v>
+        <v>0.9408</v>
       </c>
       <c r="F22">
         <v>1</v>
@@ -1236,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>0.975</v>
+        <v>0.9408</v>
       </c>
       <c r="F23">
         <v>1</v>
@@ -1259,7 +1317,7 @@
         <v>1</v>
       </c>
       <c r="E24">
-        <v>0.975</v>
+        <v>0.9408</v>
       </c>
       <c r="F24">
         <v>1</v>
@@ -1282,7 +1340,7 @@
         <v>1</v>
       </c>
       <c r="E25">
-        <v>1.146</v>
+        <v>0.9089</v>
       </c>
       <c r="F25">
         <v>1</v>
@@ -1305,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="E26">
-        <v>0.8225</v>
+        <v>0.85995</v>
       </c>
       <c r="F26">
         <v>1</v>
@@ -1328,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="E27">
-        <v>0.844</v>
+        <v>0.89225</v>
       </c>
       <c r="F27">
         <v>1</v>
@@ -1351,7 +1409,7 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>0.844</v>
+        <v>0.89225</v>
       </c>
       <c r="F28">
         <v>1</v>
@@ -1374,7 +1432,7 @@
         <v>1</v>
       </c>
       <c r="E29">
-        <v>0.844</v>
+        <v>0.89225</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -1397,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E30">
-        <v>0.844</v>
+        <v>0.89225</v>
       </c>
       <c r="F30">
         <v>1</v>
@@ -1420,7 +1478,7 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>0.8674999999999999</v>
+        <v>0.851</v>
       </c>
       <c r="F31">
         <v>1</v>
@@ -1443,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="E32">
-        <v>0.8674999999999999</v>
+        <v>0.851</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -1466,7 +1524,7 @@
         <v>1</v>
       </c>
       <c r="E33">
-        <v>0.904</v>
+        <v>0.87495</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -1489,7 +1547,7 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>0.698</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -1512,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>0.698</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -1535,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0.698</v>
+        <v>0.6489499999999999</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -1558,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="E37">
-        <v>0.6205000000000001</v>
+        <v>0.8411500000000001</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -1604,7 +1662,7 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>0.91</v>
+        <v>0.76845</v>
       </c>
       <c r="F39">
         <v>1</v>
@@ -1627,7 +1685,7 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>0.76</v>
+        <v>0.84365</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -1650,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>0.91095</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -1673,7 +1731,7 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>0.8175</v>
+        <v>0.8679</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -1696,7 +1754,7 @@
         <v>1</v>
       </c>
       <c r="E43">
-        <v>0.9655</v>
+        <v>0.8802</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -1719,7 +1777,7 @@
         <v>1</v>
       </c>
       <c r="E44">
-        <v>0.675</v>
+        <v>0.631</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -1742,7 +1800,7 @@
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0.8251499999999999</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -1765,7 +1823,7 @@
         <v>1</v>
       </c>
       <c r="E46">
-        <v>0.534</v>
+        <v>0.6228</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -1788,7 +1846,7 @@
         <v>1</v>
       </c>
       <c r="E47">
-        <v>1.0615</v>
+        <v>0.9772999999999999</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -1811,7 +1869,7 @@
         <v>1</v>
       </c>
       <c r="E48">
-        <v>0.5409999999999999</v>
+        <v>0.5549999999999999</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -1834,7 +1892,7 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0.623</v>
+        <v>0.73</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -1857,7 +1915,7 @@
         <v>1</v>
       </c>
       <c r="E50">
-        <v>1</v>
+        <v>0.7965</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -1880,7 +1938,7 @@
         <v>1</v>
       </c>
       <c r="E51">
-        <v>0.9</v>
+        <v>0.7965</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -1903,7 +1961,7 @@
         <v>1</v>
       </c>
       <c r="E52">
-        <v>0.9345</v>
+        <v>0.927</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -1926,7 +1984,7 @@
         <v>1</v>
       </c>
       <c r="E53">
-        <v>1.085</v>
+        <v>0.92035</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -1949,7 +2007,7 @@
         <v>1</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>1.01425</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -1972,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.85</v>
+        <v>1</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -1995,7 +2053,7 @@
         <v>1</v>
       </c>
       <c r="E56">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2018,7 +2076,7 @@
         <v>1</v>
       </c>
       <c r="E57">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2041,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2064,7 +2122,7 @@
         <v>1</v>
       </c>
       <c r="E59">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F59">
         <v>1</v>
@@ -2087,7 +2145,7 @@
         <v>1</v>
       </c>
       <c r="E60">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F60">
         <v>1</v>
@@ -2110,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
       <c r="F61">
         <v>1</v>
@@ -2133,7 +2191,7 @@
         <v>1</v>
       </c>
       <c r="E62">
-        <v>1</v>
+        <v>0.7625000000000001</v>
       </c>
       <c r="F62">
         <v>1</v>
@@ -2156,7 +2214,7 @@
         <v>1</v>
       </c>
       <c r="E63">
-        <v>1</v>
+        <v>0.99975</v>
       </c>
       <c r="F63">
         <v>1</v>
@@ -2179,7 +2237,7 @@
         <v>1</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>0.8394</v>
       </c>
       <c r="F64">
         <v>1</v>
@@ -2202,7 +2260,7 @@
         <v>1</v>
       </c>
       <c r="E65">
-        <v>1.1</v>
+        <v>1.03685</v>
       </c>
       <c r="F65">
         <v>1</v>
@@ -2225,7 +2283,7 @@
         <v>1</v>
       </c>
       <c r="E66">
-        <v>1.1</v>
+        <v>1.03685</v>
       </c>
       <c r="F66">
         <v>1</v>
@@ -2248,7 +2306,7 @@
         <v>1</v>
       </c>
       <c r="E67">
-        <v>0.5050000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="F67">
         <v>1</v>
@@ -2326,7 +2384,7 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>1.069</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2334,7 +2392,7 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2342,7 +2400,7 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.9359999999999999</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2350,7 +2408,7 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2358,7 +2416,7 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>1.014</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2366,7 +2424,7 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2374,7 +2432,7 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>1.028</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2382,7 +2440,7 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>1.044</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2390,7 +2448,7 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>1.0297</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2398,7 +2456,7 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>1.0297</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2406,7 +2464,7 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>1</v>
+        <v>0.965</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2414,7 +2472,7 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>1</v>
+        <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2422,7 +2480,7 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>1</v>
+        <v>0.7375</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -2430,7 +2488,7 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>1</v>
+        <v>0.7375</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -2438,7 +2496,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>0.7375</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -2446,7 +2504,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -2454,7 +2512,7 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>1</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="19" spans="1:2">
@@ -2462,7 +2520,7 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>1</v>
+        <v>0.9215</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -2470,7 +2528,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>1</v>
+        <v>0.7867499999999999</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2478,7 +2536,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>1</v>
+        <v>0.7867499999999999</v>
       </c>
     </row>
     <row r="22" spans="1:2">
@@ -2486,7 +2544,7 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>1</v>
+        <v>0.9408</v>
       </c>
     </row>
     <row r="23" spans="1:2">
@@ -2494,7 +2552,7 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>1</v>
+        <v>0.9408</v>
       </c>
     </row>
     <row r="24" spans="1:2">
@@ -2502,7 +2560,7 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>0.9408</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -2510,7 +2568,7 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>0.9089</v>
       </c>
     </row>
     <row r="26" spans="1:2">
@@ -2518,7 +2576,7 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.85995</v>
       </c>
     </row>
     <row r="27" spans="1:2">
@@ -2526,7 +2584,7 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>1</v>
+        <v>0.89225</v>
       </c>
     </row>
     <row r="28" spans="1:2">
@@ -2534,7 +2592,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>0.89225</v>
       </c>
     </row>
     <row r="29" spans="1:2">
@@ -2542,7 +2600,7 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>1</v>
+        <v>0.89225</v>
       </c>
     </row>
     <row r="30" spans="1:2">
@@ -2550,7 +2608,7 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>1</v>
+        <v>0.89225</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -2558,7 +2616,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>1</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="32" spans="1:2">
@@ -2566,7 +2624,7 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>1</v>
+        <v>0.851</v>
       </c>
     </row>
     <row r="33" spans="1:2">
@@ -2574,7 +2632,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>1</v>
+        <v>0.87495</v>
       </c>
     </row>
     <row r="34" spans="1:2">
@@ -2582,7 +2640,7 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>1</v>
+        <v>0.6489499999999999</v>
       </c>
     </row>
     <row r="35" spans="1:2">
@@ -2590,7 +2648,7 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>1</v>
+        <v>0.6489499999999999</v>
       </c>
     </row>
     <row r="36" spans="1:2">
@@ -2598,7 +2656,7 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>1</v>
+        <v>0.6489499999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2">
@@ -2606,7 +2664,7 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>1</v>
+        <v>0.8411500000000001</v>
       </c>
     </row>
     <row r="38" spans="1:2">
@@ -2622,7 +2680,7 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>0.76845</v>
       </c>
     </row>
     <row r="40" spans="1:2">
@@ -2630,7 +2688,7 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1</v>
+        <v>0.84365</v>
       </c>
     </row>
     <row r="41" spans="1:2">
@@ -2638,7 +2696,7 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.91095</v>
       </c>
     </row>
     <row r="42" spans="1:2">
@@ -2646,7 +2704,7 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>1</v>
+        <v>0.8679</v>
       </c>
     </row>
     <row r="43" spans="1:2">
@@ -2654,7 +2712,7 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1</v>
+        <v>0.8802</v>
       </c>
     </row>
     <row r="44" spans="1:2">
@@ -2662,7 +2720,7 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.631</v>
       </c>
     </row>
     <row r="45" spans="1:2">
@@ -2670,7 +2728,7 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>1</v>
+        <v>0.8251499999999999</v>
       </c>
     </row>
     <row r="46" spans="1:2">
@@ -2678,7 +2736,7 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>1</v>
+        <v>0.6228</v>
       </c>
     </row>
     <row r="47" spans="1:2">
@@ -2686,7 +2744,7 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>0.9772999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
@@ -2694,7 +2752,7 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>1</v>
+        <v>0.5549999999999999</v>
       </c>
     </row>
     <row r="49" spans="1:2">
@@ -2702,7 +2760,7 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="50" spans="1:2">
@@ -2710,7 +2768,7 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>0.7965</v>
       </c>
     </row>
     <row r="51" spans="1:2">
@@ -2718,7 +2776,7 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>1</v>
+        <v>0.7965</v>
       </c>
     </row>
     <row r="52" spans="1:2">
@@ -2726,7 +2784,7 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>1</v>
+        <v>0.927</v>
       </c>
     </row>
     <row r="53" spans="1:2">
@@ -2734,7 +2792,7 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>1</v>
+        <v>0.92035</v>
       </c>
     </row>
     <row r="54" spans="1:2">
@@ -2742,7 +2800,7 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>1</v>
+        <v>1.01425</v>
       </c>
     </row>
     <row r="55" spans="1:2">
@@ -2758,7 +2816,7 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="57" spans="1:2">
@@ -2766,7 +2824,7 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="58" spans="1:2">
@@ -2774,7 +2832,7 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="59" spans="1:2">
@@ -2782,7 +2840,7 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -2790,7 +2848,7 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="61" spans="1:2">
@@ -2798,7 +2856,7 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>1</v>
+        <v>0.91305</v>
       </c>
     </row>
     <row r="62" spans="1:2">
@@ -2806,7 +2864,7 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.7625000000000001</v>
       </c>
     </row>
     <row r="63" spans="1:2">
@@ -2814,7 +2872,7 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>1</v>
+        <v>0.99975</v>
       </c>
     </row>
     <row r="64" spans="1:2">
@@ -2822,7 +2880,7 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>1</v>
+        <v>0.8394</v>
       </c>
     </row>
     <row r="65" spans="1:2">
@@ -2830,7 +2888,7 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>1.03685</v>
       </c>
     </row>
     <row r="66" spans="1:2">
@@ -2838,7 +2896,7 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>1</v>
+        <v>1.03685</v>
       </c>
     </row>
     <row r="67" spans="1:2">
@@ -2846,7 +2904,7 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>1</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="68" spans="1:2">
@@ -2854,7 +2912,7 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>1</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="69" spans="1:2">
@@ -2862,7 +2920,7 @@
         <v>73</v>
       </c>
       <c r="B69">
-        <v>1</v>
+        <v>0.85</v>
       </c>
     </row>
   </sheetData>
@@ -2897,16 +2955,16 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>350709.616174762</v>
+        <v>345496.077161949</v>
       </c>
       <c r="C2">
         <v>356847.0000000002</v>
       </c>
       <c r="D2">
-        <v>-6137.383825238154</v>
+        <v>-11350.92283805122</v>
       </c>
       <c r="E2">
-        <v>-0.0171989222978984</v>
+        <v>-0.03180893446785658</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -2914,16 +2972,16 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>148329.0147035469</v>
+        <v>150925.7652345417</v>
       </c>
       <c r="C3">
         <v>147583</v>
       </c>
       <c r="D3">
-        <v>746.0147035468835</v>
+        <v>3342.765234541759</v>
       </c>
       <c r="E3">
-        <v>0.005054882361429729</v>
+        <v>0.02265006968649343</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2931,16 +2989,16 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>34327.99727333365</v>
+        <v>33036.29533537917</v>
       </c>
       <c r="C4">
         <v>36146</v>
       </c>
       <c r="D4">
-        <v>-1818.002726666353</v>
+        <v>-3109.704664620833</v>
       </c>
       <c r="E4">
-        <v>-0.05029609712461552</v>
+        <v>-0.08603177847122317</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2948,16 +3006,16 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>18261.33169929272</v>
+        <v>15734.17382584174</v>
       </c>
       <c r="C5">
         <v>18832</v>
       </c>
       <c r="D5">
-        <v>-570.6683007072788</v>
+        <v>-3097.826174158256</v>
       </c>
       <c r="E5">
-        <v>-0.03030311707239161</v>
+        <v>-0.1644979914060246</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2965,16 +3023,16 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>136618.5849415319</v>
+        <v>107192.317049986</v>
       </c>
       <c r="C6">
         <v>146194</v>
       </c>
       <c r="D6">
-        <v>-9575.415058468032</v>
+        <v>-39001.682950014</v>
       </c>
       <c r="E6">
-        <v>-0.06549800305394225</v>
+        <v>-0.2667803258000603</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2982,16 +3040,16 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>71069.58430929668</v>
+        <v>67984.67341055014</v>
       </c>
       <c r="C7">
         <v>71589.99999999997</v>
       </c>
       <c r="D7">
-        <v>-520.4156907032884</v>
+        <v>-3605.326589449833</v>
       </c>
       <c r="E7">
-        <v>-0.007269390846532876</v>
+        <v>-0.05036075694160964</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2999,16 +3057,16 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>16322.83636571328</v>
+        <v>14606.0919499861</v>
       </c>
       <c r="C8">
         <v>16673</v>
       </c>
       <c r="D8">
-        <v>-350.1636342867132</v>
+        <v>-2066.908050013899</v>
       </c>
       <c r="E8">
-        <v>-0.02100183735900638</v>
+        <v>-0.1239673753981827</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -3016,16 +3074,16 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>274451.32895793</v>
+        <v>271714.9323683037</v>
       </c>
       <c r="C9">
         <v>272342.0000000001</v>
       </c>
       <c r="D9">
-        <v>2109.328957929858</v>
+        <v>-627.0676316964091</v>
       </c>
       <c r="E9">
-        <v>0.007745147490764763</v>
+        <v>-0.002302500648803375</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -3033,16 +3091,16 @@
         <v>14</v>
       </c>
       <c r="B10">
-        <v>59240.69007705947</v>
+        <v>58079.53201754941</v>
       </c>
       <c r="C10">
         <v>62659.00000000001</v>
       </c>
       <c r="D10">
-        <v>-3418.309922940542</v>
+        <v>-4579.467982450595</v>
       </c>
       <c r="E10">
-        <v>-0.05455417295106116</v>
+        <v>-0.07308555805950612</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -3050,16 +3108,16 @@
         <v>15</v>
       </c>
       <c r="B11">
-        <v>276582.7734239192</v>
+        <v>287393.6183175879</v>
       </c>
       <c r="C11">
         <v>290387.0000000002</v>
       </c>
       <c r="D11">
-        <v>-13804.22657608101</v>
+        <v>-2993.38168241235</v>
       </c>
       <c r="E11">
-        <v>-0.04753734353149763</v>
+        <v>-0.0103082496200324</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -3067,16 +3125,16 @@
         <v>16</v>
       </c>
       <c r="B12">
-        <v>64549.87195819744</v>
+        <v>60996.02210788147</v>
       </c>
       <c r="C12">
         <v>74872.00000000003</v>
       </c>
       <c r="D12">
-        <v>-10322.12804180259</v>
+        <v>-13875.97789211856</v>
       </c>
       <c r="E12">
-        <v>-0.1378636612058257</v>
+        <v>-0.1853293339582027</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -3084,16 +3142,16 @@
         <v>17</v>
       </c>
       <c r="B13">
-        <v>13977.81489219655</v>
+        <v>14438.6370981212</v>
       </c>
       <c r="C13">
         <v>14953</v>
       </c>
       <c r="D13">
-        <v>-975.1851078034524</v>
+        <v>-514.3629018787979</v>
       </c>
       <c r="E13">
-        <v>-0.0652166861367921</v>
+        <v>-0.03439864253854061</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -3101,16 +3159,16 @@
         <v>18</v>
       </c>
       <c r="B14">
-        <v>36218.43613480452</v>
+        <v>32756.07789572453</v>
       </c>
       <c r="C14">
         <v>50830</v>
       </c>
       <c r="D14">
-        <v>-14611.56386519548</v>
+        <v>-18073.92210427547</v>
       </c>
       <c r="E14">
-        <v>-0.2874594504268243</v>
+        <v>-0.3555758824370543</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -3118,16 +3176,16 @@
         <v>19</v>
       </c>
       <c r="B15">
-        <v>42422.79897920714</v>
+        <v>47407.15097563958</v>
       </c>
       <c r="C15">
         <v>64164.00000000004</v>
       </c>
       <c r="D15">
-        <v>-21741.20102079291</v>
+        <v>-16756.84902436046</v>
       </c>
       <c r="E15">
-        <v>-0.3388379935913112</v>
+        <v>-0.2611565523402601</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -3135,16 +3193,16 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>30924.8313884862</v>
+        <v>33415.31620643554</v>
       </c>
       <c r="C16">
         <v>43822.99999999997</v>
       </c>
       <c r="D16">
-        <v>-12898.16861151377</v>
+        <v>-10407.68379356443</v>
       </c>
       <c r="E16">
-        <v>-0.294324181628683</v>
+        <v>-0.2374936401790027</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3152,16 +3210,16 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>26845.1356140339</v>
+        <v>24703.99415510023</v>
       </c>
       <c r="C17">
         <v>28782</v>
       </c>
       <c r="D17">
-        <v>-1936.864385966092</v>
+        <v>-4078.005844899762</v>
       </c>
       <c r="E17">
-        <v>-0.06729429455792132</v>
+        <v>-0.1416859789069475</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3169,16 +3227,16 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>87619.1781242671</v>
+        <v>79805.35533651996</v>
       </c>
       <c r="C18">
         <v>91125.00000000003</v>
       </c>
       <c r="D18">
-        <v>-3505.82187573293</v>
+        <v>-11319.64466348007</v>
       </c>
       <c r="E18">
-        <v>-0.0384726680464519</v>
+        <v>-0.1242210662658992</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3186,16 +3244,16 @@
         <v>23</v>
       </c>
       <c r="B19">
-        <v>17825.44372304006</v>
+        <v>14204.27755974951</v>
       </c>
       <c r="C19">
         <v>18878</v>
       </c>
       <c r="D19">
-        <v>-1052.556276959938</v>
+        <v>-4673.722440250493</v>
       </c>
       <c r="E19">
-        <v>-0.0557557091302012</v>
+        <v>-0.2475750842382929</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3203,16 +3261,16 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>329062.9087988284</v>
+        <v>252048.9841689314</v>
       </c>
       <c r="C20">
         <v>373762</v>
       </c>
       <c r="D20">
-        <v>-44699.09120117157</v>
+        <v>-121713.0158310686</v>
       </c>
       <c r="E20">
-        <v>-0.1195923908828922</v>
+        <v>-0.3256430986324683</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3220,16 +3278,16 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>42818.05502761463</v>
+        <v>36133.03175468578</v>
       </c>
       <c r="C21">
         <v>48234.00000000002</v>
       </c>
       <c r="D21">
-        <v>-5415.94497238539</v>
+        <v>-12100.96824531424</v>
       </c>
       <c r="E21">
-        <v>-0.1122847985318528</v>
+        <v>-0.2508804628542985</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3237,16 +3295,16 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>147084.4037340434</v>
+        <v>133752.4146652517</v>
       </c>
       <c r="C22">
         <v>153653.0000000001</v>
       </c>
       <c r="D22">
-        <v>-6568.596265956614</v>
+        <v>-19900.58533474832</v>
       </c>
       <c r="E22">
-        <v>-0.04274954778596325</v>
+        <v>-0.1295164125317977</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3254,16 +3312,16 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>75715.50860971419</v>
+        <v>70836.19830600385</v>
       </c>
       <c r="C23">
         <v>78228</v>
       </c>
       <c r="D23">
-        <v>-2512.49139028581</v>
+        <v>-7391.801693996153</v>
       </c>
       <c r="E23">
-        <v>-0.03211754602298167</v>
+        <v>-0.09449048542716358</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3271,16 +3329,16 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>44283.67599914241</v>
+        <v>41750.70697641927</v>
       </c>
       <c r="C24">
         <v>45560.00000000001</v>
       </c>
       <c r="D24">
-        <v>-1276.324000857603</v>
+        <v>-3809.293023580743</v>
       </c>
       <c r="E24">
-        <v>-0.02801413522514492</v>
+        <v>-0.08361047022784772</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3288,16 +3346,16 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>70904.05344278837</v>
+        <v>60761.74773574882</v>
       </c>
       <c r="C25">
         <v>64543.00000000002</v>
       </c>
       <c r="D25">
-        <v>6361.053442788347</v>
+        <v>-3781.252264251198</v>
       </c>
       <c r="E25">
-        <v>0.09855528008906225</v>
+        <v>-0.05858500943946201</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3305,16 +3363,16 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>98144.3533553235</v>
+        <v>83014.15062391711</v>
       </c>
       <c r="C26">
         <v>107136</v>
       </c>
       <c r="D26">
-        <v>-8991.646644676512</v>
+        <v>-24121.8493760829</v>
       </c>
       <c r="E26">
-        <v>-0.08392740670434318</v>
+        <v>-0.2251516705503556</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3322,16 +3380,16 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>74338.94084796455</v>
+        <v>66405.63826251935</v>
       </c>
       <c r="C27">
         <v>76997.00000000001</v>
       </c>
       <c r="D27">
-        <v>-2658.059152035465</v>
+        <v>-10591.36173748066</v>
       </c>
       <c r="E27">
-        <v>-0.03452159372489141</v>
+        <v>-0.137555511740466</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3339,16 +3397,16 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>106940.3067661907</v>
+        <v>91288.74549016442</v>
       </c>
       <c r="C28">
         <v>111188</v>
       </c>
       <c r="D28">
-        <v>-4247.693233809361</v>
+        <v>-19899.25450983561</v>
       </c>
       <c r="E28">
-        <v>-0.03820280276477102</v>
+        <v>-0.1789694437334569</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3356,16 +3414,16 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>55549.16069896734</v>
+        <v>47763.51256135723</v>
       </c>
       <c r="C29">
         <v>58123</v>
       </c>
       <c r="D29">
-        <v>-2573.839301032662</v>
+        <v>-10359.48743864277</v>
       </c>
       <c r="E29">
-        <v>-0.04428262995772176</v>
+        <v>-0.178233873658324</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3373,16 +3431,16 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>85364.90127261721</v>
+        <v>74747.6012430196</v>
       </c>
       <c r="C30">
         <v>91128.00000000003</v>
       </c>
       <c r="D30">
-        <v>-5763.098727382821</v>
+        <v>-16380.39875698043</v>
       </c>
       <c r="E30">
-        <v>-0.06324179974741923</v>
+        <v>-0.1797515446073701</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3390,16 +3448,16 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>84560.02969594678</v>
+        <v>79101.54798918043</v>
       </c>
       <c r="C31">
         <v>90442.00000000004</v>
       </c>
       <c r="D31">
-        <v>-5881.970304053262</v>
+        <v>-11340.45201081962</v>
       </c>
       <c r="E31">
-        <v>-0.06503582742590013</v>
+        <v>-0.1253892219413504</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3407,16 +3465,16 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>66472.61419751424</v>
+        <v>58516.58921386823</v>
       </c>
       <c r="C32">
         <v>70805</v>
       </c>
       <c r="D32">
-        <v>-4332.385802485762</v>
+        <v>-12288.41078613177</v>
       </c>
       <c r="E32">
-        <v>-0.06118756870963579</v>
+        <v>-0.1735528675394643</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -3424,16 +3482,16 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>113466.5683448236</v>
+        <v>106987.3992896867</v>
       </c>
       <c r="C33">
         <v>115357</v>
       </c>
       <c r="D33">
-        <v>-1890.431655176377</v>
+        <v>-8369.600710313316</v>
       </c>
       <c r="E33">
-        <v>-0.01638766312556999</v>
+        <v>-0.07255390405708641</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3441,16 +3499,16 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>138155.5073923603</v>
+        <v>132148.6128153417</v>
       </c>
       <c r="C34">
         <v>160371</v>
       </c>
       <c r="D34">
-        <v>-22215.49260763967</v>
+        <v>-28222.38718465826</v>
       </c>
       <c r="E34">
-        <v>-0.1385256225105516</v>
+        <v>-0.1759818619616905</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -3458,16 +3516,16 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>79487.81690085235</v>
+        <v>56632.40666594398</v>
       </c>
       <c r="C35">
         <v>89074.99999999996</v>
       </c>
       <c r="D35">
-        <v>-9587.183099147602</v>
+        <v>-32442.59333405598</v>
       </c>
       <c r="E35">
-        <v>-0.107630458592732</v>
+        <v>-0.3642165965091888</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3475,16 +3533,16 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>39225.81948789855</v>
+        <v>35931.85236914274</v>
       </c>
       <c r="C36">
         <v>42196.00000000001</v>
       </c>
       <c r="D36">
-        <v>-2970.180512101462</v>
+        <v>-6264.147630857275</v>
       </c>
       <c r="E36">
-        <v>-0.07039009650444263</v>
+        <v>-0.1484535887491059</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3492,16 +3550,16 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>54528.0487052984</v>
+        <v>62475.45905369794</v>
       </c>
       <c r="C37">
         <v>71038</v>
       </c>
       <c r="D37">
-        <v>-16509.9512947016</v>
+        <v>-8562.540946302055</v>
       </c>
       <c r="E37">
-        <v>-0.232410136753591</v>
+        <v>-0.1205346567513451</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3509,16 +3567,16 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>68338.1620264977</v>
+        <v>56957.30876587965</v>
       </c>
       <c r="C38">
         <v>71614</v>
       </c>
       <c r="D38">
-        <v>-3275.837973502305</v>
+        <v>-14656.69123412035</v>
       </c>
       <c r="E38">
-        <v>-0.04574298284556517</v>
+        <v>-0.2046623737554158</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3526,16 +3584,16 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>271592.839614616</v>
+        <v>206286.9643500958</v>
       </c>
       <c r="C39">
         <v>292501.0000000001</v>
       </c>
       <c r="D39">
-        <v>-20908.16038538417</v>
+        <v>-86214.03564990431</v>
       </c>
       <c r="E39">
-        <v>-0.07148064582816523</v>
+        <v>-0.2947478321438364</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3543,16 +3601,16 @@
         <v>44</v>
       </c>
       <c r="B40">
-        <v>65660.15407169523</v>
+        <v>60275.38461454208</v>
       </c>
       <c r="C40">
         <v>75152</v>
       </c>
       <c r="D40">
-        <v>-9491.84592830477</v>
+        <v>-14876.61538545792</v>
       </c>
       <c r="E40">
-        <v>-0.1263019737106766</v>
+        <v>-0.1979536856698147</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3560,16 +3618,16 @@
         <v>45</v>
       </c>
       <c r="B41">
-        <v>543457.6746350918</v>
+        <v>529248.6049338507</v>
       </c>
       <c r="C41">
         <v>545839.0000000001</v>
       </c>
       <c r="D41">
-        <v>-2381.32536490832</v>
+        <v>-16590.39506614942</v>
       </c>
       <c r="E41">
-        <v>-0.004362688200931629</v>
+        <v>-0.0303943013711908</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3577,16 +3635,16 @@
         <v>46</v>
       </c>
       <c r="B42">
-        <v>143060.584438399</v>
+        <v>136187.4721819108</v>
       </c>
       <c r="C42">
         <v>164007.9999999999</v>
       </c>
       <c r="D42">
-        <v>-20947.41556160091</v>
+        <v>-27820.52781808912</v>
       </c>
       <c r="E42">
-        <v>-0.1277219133310626</v>
+        <v>-0.1696290901546822</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3594,16 +3652,16 @@
         <v>47</v>
       </c>
       <c r="B43">
-        <v>1001178.729290066</v>
+        <v>898813.8160555353</v>
       </c>
       <c r="C43">
         <v>1048649</v>
       </c>
       <c r="D43">
-        <v>-47470.27070993395</v>
+        <v>-149835.1839444647</v>
       </c>
       <c r="E43">
-        <v>-0.04526802648925803</v>
+        <v>-0.1428840192900243</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3611,16 +3669,16 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>313403.1508035014</v>
+        <v>263383.5338160759</v>
       </c>
       <c r="C44">
         <v>364931</v>
       </c>
       <c r="D44">
-        <v>-51527.84919649863</v>
+        <v>-101547.4661839241</v>
       </c>
       <c r="E44">
-        <v>-0.1411988819708346</v>
+        <v>-0.2782648396105678</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3628,16 +3686,16 @@
         <v>49</v>
       </c>
       <c r="B45">
-        <v>21246.63502071653</v>
+        <v>18333.51693723703</v>
       </c>
       <c r="C45">
         <v>22057.99999999999</v>
       </c>
       <c r="D45">
-        <v>-811.3649792834658</v>
+        <v>-3724.48306276296</v>
       </c>
       <c r="E45">
-        <v>-0.03678325230226975</v>
+        <v>-0.1688495358945943</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -3645,16 +3703,16 @@
         <v>50</v>
       </c>
       <c r="B46">
-        <v>34239.52654140315</v>
+        <v>30228.31788253939</v>
       </c>
       <c r="C46">
         <v>40508.00000000001</v>
       </c>
       <c r="D46">
-        <v>-6268.473458596869</v>
+        <v>-10279.68211746062</v>
       </c>
       <c r="E46">
-        <v>-0.1547465552137076</v>
+        <v>-0.2537691842959569</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -3662,16 +3720,16 @@
         <v>51</v>
       </c>
       <c r="B47">
-        <v>120202.9304856794</v>
+        <v>100521.7126348914</v>
       </c>
       <c r="C47">
         <v>124316</v>
       </c>
       <c r="D47">
-        <v>-4113.06951432061</v>
+        <v>-23794.28736510861</v>
       </c>
       <c r="E47">
-        <v>-0.03308560052061368</v>
+        <v>-0.1914016487427894</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -3679,16 +3737,16 @@
         <v>52</v>
       </c>
       <c r="B48">
-        <v>21704.95734416816</v>
+        <v>19097.05281790059</v>
       </c>
       <c r="C48">
         <v>25389</v>
       </c>
       <c r="D48">
-        <v>-3684.042655831836</v>
+        <v>-6291.947182099408</v>
       </c>
       <c r="E48">
-        <v>-0.1451038897093953</v>
+        <v>-0.2478217803812441</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -3696,16 +3754,16 @@
         <v>53</v>
       </c>
       <c r="B49">
-        <v>175371.1606418778</v>
+        <v>192317.6816791496</v>
       </c>
       <c r="C49">
         <v>258532</v>
       </c>
       <c r="D49">
-        <v>-83160.83935812218</v>
+        <v>-66214.31832085035</v>
       </c>
       <c r="E49">
-        <v>-0.3216655553591903</v>
+        <v>-0.2561165284020948</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -3713,16 +3771,16 @@
         <v>54</v>
       </c>
       <c r="B50">
-        <v>17641.78496816817</v>
+        <v>14521.69331715202</v>
       </c>
       <c r="C50">
         <v>17858</v>
       </c>
       <c r="D50">
-        <v>-216.2150318318381</v>
+        <v>-3336.30668284798</v>
       </c>
       <c r="E50">
-        <v>-0.01210746062447296</v>
+        <v>-0.1868242066775664</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -3730,16 +3788,16 @@
         <v>55</v>
       </c>
       <c r="B51">
-        <v>40249.27006718816</v>
+        <v>30279.18316548307</v>
       </c>
       <c r="C51">
         <v>42978</v>
       </c>
       <c r="D51">
-        <v>-2728.729932811839</v>
+        <v>-12698.81683451693</v>
       </c>
       <c r="E51">
-        <v>-0.0634913195777337</v>
+        <v>-0.2954724937064761</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -3747,16 +3805,16 @@
         <v>56</v>
       </c>
       <c r="B52">
-        <v>154440.0345219817</v>
+        <v>143212.200641781</v>
       </c>
       <c r="C52">
         <v>164602</v>
       </c>
       <c r="D52">
-        <v>-10161.96547801836</v>
+        <v>-21389.79935821902</v>
       </c>
       <c r="E52">
-        <v>-0.06173658569165843</v>
+        <v>-0.1299485993986648</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -3764,16 +3822,16 @@
         <v>57</v>
       </c>
       <c r="B53">
-        <v>145893.8157239205</v>
+        <v>133209.1792259278</v>
       </c>
       <c r="C53">
         <v>148747</v>
       </c>
       <c r="D53">
-        <v>-2853.184276079526</v>
+        <v>-15537.82077407223</v>
       </c>
       <c r="E53">
-        <v>-0.01918145761648656</v>
+        <v>-0.1044580446938239</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -3781,16 +3839,16 @@
         <v>58</v>
       </c>
       <c r="B54">
-        <v>630146.9939498298</v>
+        <v>585120.2033442052</v>
       </c>
       <c r="C54">
         <v>647163.0000000001</v>
       </c>
       <c r="D54">
-        <v>-17016.00605017028</v>
+        <v>-62042.79665579495</v>
       </c>
       <c r="E54">
-        <v>-0.02629323068557733</v>
+        <v>-0.09586888721356898</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -3798,16 +3856,16 @@
         <v>59</v>
       </c>
       <c r="B55">
-        <v>525100.1734792194</v>
+        <v>587407.6169595819</v>
       </c>
       <c r="C55">
         <v>609858.0000000001</v>
       </c>
       <c r="D55">
-        <v>-84757.82652078068</v>
+        <v>-22450.38304041827</v>
       </c>
       <c r="E55">
-        <v>-0.1389796092217871</v>
+        <v>-0.03681247608528258</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -3815,16 +3873,16 @@
         <v>60</v>
       </c>
       <c r="B56">
-        <v>204449.2938361618</v>
+        <v>171264.8628572109</v>
       </c>
       <c r="C56">
         <v>214447</v>
       </c>
       <c r="D56">
-        <v>-9997.706163838186</v>
+        <v>-43182.13714278911</v>
       </c>
       <c r="E56">
-        <v>-0.04662087212149475</v>
+        <v>-0.2013650792167254</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -3832,16 +3890,16 @@
         <v>61</v>
       </c>
       <c r="B57">
-        <v>56264.93103035363</v>
+        <v>50992.4130943679</v>
       </c>
       <c r="C57">
         <v>57401.99999999999</v>
       </c>
       <c r="D57">
-        <v>-1137.068969646352</v>
+        <v>-6409.586905632088</v>
       </c>
       <c r="E57">
-        <v>-0.01980887372646167</v>
+        <v>-0.1116613864609611</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -3849,16 +3907,16 @@
         <v>62</v>
       </c>
       <c r="B58">
-        <v>91185.04259579594</v>
+        <v>74746.12150471</v>
       </c>
       <c r="C58">
         <v>97139.00000000001</v>
       </c>
       <c r="D58">
-        <v>-5953.957404204077</v>
+        <v>-22392.87849529002</v>
       </c>
       <c r="E58">
-        <v>-0.06129317168391765</v>
+        <v>-0.2305240788487632</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -3866,16 +3924,16 @@
         <v>63</v>
       </c>
       <c r="B59">
-        <v>41229.49779017176</v>
+        <v>33899.78879188834</v>
       </c>
       <c r="C59">
         <v>43511</v>
       </c>
       <c r="D59">
-        <v>-2281.502209828235</v>
+        <v>-9611.211208111657</v>
       </c>
       <c r="E59">
-        <v>-0.05243506722043242</v>
+        <v>-0.2208915264671384</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -3883,16 +3941,16 @@
         <v>64</v>
       </c>
       <c r="B60">
-        <v>232991.3835778962</v>
+        <v>201263.7316583502</v>
       </c>
       <c r="C60">
         <v>241402</v>
       </c>
       <c r="D60">
-        <v>-8410.616422103776</v>
+        <v>-40138.26834164979</v>
       </c>
       <c r="E60">
-        <v>-0.03484070729365861</v>
+        <v>-0.1662714821817955</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -3900,16 +3958,16 @@
         <v>65</v>
       </c>
       <c r="B61">
-        <v>40027.10825448268</v>
+        <v>32820.53194024242</v>
       </c>
       <c r="C61">
         <v>41802</v>
       </c>
       <c r="D61">
-        <v>-1774.891745517321</v>
+        <v>-8981.468059757579</v>
       </c>
       <c r="E61">
-        <v>-0.04245949345766522</v>
+        <v>-0.2148573766747423</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -3917,16 +3975,16 @@
         <v>66</v>
       </c>
       <c r="B62">
-        <v>810898.069226584</v>
+        <v>803732.5635969918</v>
       </c>
       <c r="C62">
         <v>812212.0000000001</v>
       </c>
       <c r="D62">
-        <v>-1313.930773416068</v>
+        <v>-8479.436403008294</v>
       </c>
       <c r="E62">
-        <v>-0.001617718986442047</v>
+        <v>-0.01043992997272669</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -3934,16 +3992,16 @@
         <v>67</v>
       </c>
       <c r="B63">
-        <v>336574.5344059862</v>
+        <v>336268.4531043431</v>
       </c>
       <c r="C63">
         <v>336651</v>
       </c>
       <c r="D63">
-        <v>-76.46559401380364</v>
+        <v>-382.5468956568511</v>
       </c>
       <c r="E63">
-        <v>-0.000227136096473213</v>
+        <v>-0.001136330786651016</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -3951,16 +4009,16 @@
         <v>68</v>
       </c>
       <c r="B64">
-        <v>132784.4226873666</v>
+        <v>110951.1634375691</v>
       </c>
       <c r="C64">
         <v>133534</v>
       </c>
       <c r="D64">
-        <v>-749.5773126334243</v>
+        <v>-22582.83656243092</v>
       </c>
       <c r="E64">
-        <v>-0.005613381705284229</v>
+        <v>-0.1691167535042081</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -3968,16 +4026,16 @@
         <v>69</v>
       </c>
       <c r="B65">
-        <v>193271.1020228029</v>
+        <v>193141.7784519518</v>
       </c>
       <c r="C65">
         <v>193090</v>
       </c>
       <c r="D65">
-        <v>181.1020228029229</v>
+        <v>51.7784519517736</v>
       </c>
       <c r="E65">
-        <v>0.0009379150800296384</v>
+        <v>0.0002681570871188234</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -3985,16 +4043,16 @@
         <v>70</v>
       </c>
       <c r="B66">
-        <v>285466.6604005503</v>
+        <v>273488.7911389868</v>
       </c>
       <c r="C66">
         <v>264750.9999999999</v>
       </c>
       <c r="D66">
-        <v>20715.66040055035</v>
+        <v>8737.791138986882</v>
       </c>
       <c r="E66">
-        <v>0.07824582494702702</v>
+        <v>0.03300380787603025</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -4002,16 +4060,16 @@
         <v>71</v>
       </c>
       <c r="B67">
-        <v>26820.40152878891</v>
+        <v>27872.79852331891</v>
       </c>
       <c r="C67">
         <v>39309.99999999999</v>
       </c>
       <c r="D67">
-        <v>-12489.59847121108</v>
+        <v>-11437.20147668108</v>
       </c>
       <c r="E67">
-        <v>-0.3177206428697808</v>
+        <v>-0.2909489055375498</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -4019,16 +4077,16 @@
         <v>72</v>
       </c>
       <c r="B68">
-        <v>129791.1299289826</v>
+        <v>125997.2178338114</v>
       </c>
       <c r="C68">
         <v>152325</v>
       </c>
       <c r="D68">
-        <v>-22533.87007101739</v>
+        <v>-26327.78216618858</v>
       </c>
       <c r="E68">
-        <v>-0.1479328414312646</v>
+        <v>-0.1728395349823639</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -4080,10 +4138,10 @@
         <v>200103</v>
       </c>
       <c r="C2">
-        <v>-3441.555948576366</v>
+        <v>-6365.063213821508</v>
       </c>
       <c r="D2">
-        <v>-1.719892229789841</v>
+        <v>-3.180893446785659</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4094,10 +4152,10 @@
         <v>75386</v>
       </c>
       <c r="C3">
-        <v>381.0673616987415</v>
+        <v>1707.498153385993</v>
       </c>
       <c r="D3">
-        <v>0.5054882361429728</v>
+        <v>2.265006968649343</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4108,10 +4166,10 @@
         <v>27482</v>
       </c>
       <c r="C4">
-        <v>-1382.237341178684</v>
+        <v>-2364.325335946156</v>
       </c>
       <c r="D4">
-        <v>-5.029609712461553</v>
+        <v>-8.603177847122319</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4122,10 +4180,10 @@
         <v>7793</v>
       </c>
       <c r="C5">
-        <v>-236.1521913451478</v>
+        <v>-1281.93284702715</v>
       </c>
       <c r="D5">
-        <v>-3.030311707239161</v>
+        <v>-16.44979914060246</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -4136,10 +4194,10 @@
         <v>41203</v>
       </c>
       <c r="C6">
-        <v>-2698.714219831582</v>
+        <v>-10992.14976393988</v>
       </c>
       <c r="D6">
-        <v>-6.549800305394224</v>
+        <v>-26.67803258000602</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -4150,10 +4208,10 @@
         <v>36606</v>
       </c>
       <c r="C7">
-        <v>-266.1033213281824</v>
+        <v>-1843.505868604562</v>
       </c>
       <c r="D7">
-        <v>-0.7269390846532875</v>
+        <v>-5.036075694160963</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -4164,10 +4222,10 @@
         <v>4975</v>
       </c>
       <c r="C8">
-        <v>-104.4841408610567</v>
+        <v>-616.7376926059585</v>
       </c>
       <c r="D8">
-        <v>-2.100183735900637</v>
+        <v>-12.39673753981826</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -4178,10 +4236,10 @@
         <v>45519</v>
       </c>
       <c r="C9">
-        <v>352.5513686321214</v>
+        <v>-104.8075270328809</v>
       </c>
       <c r="D9">
-        <v>0.7745147490764767</v>
+        <v>-0.2302500648803376</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4192,10 +4250,10 @@
         <v>12726</v>
       </c>
       <c r="C10">
-        <v>-694.2564049752044</v>
+        <v>-930.086811865275</v>
       </c>
       <c r="D10">
-        <v>-5.455417295106116</v>
+        <v>-7.308555805950613</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -4206,10 +4264,10 @@
         <v>64350</v>
       </c>
       <c r="C11">
-        <v>-3059.028056251875</v>
+        <v>-663.3358630490851</v>
       </c>
       <c r="D11">
-        <v>-4.753734353149766</v>
+        <v>-1.03082496200324</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4220,10 +4278,10 @@
         <v>20133</v>
       </c>
       <c r="C12">
-        <v>-2775.60909105689</v>
+        <v>-3731.235480580496</v>
       </c>
       <c r="D12">
-        <v>-13.78636612058257</v>
+        <v>-18.53293339582028</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4234,10 +4292,10 @@
         <v>3159</v>
       </c>
       <c r="C13">
-        <v>-206.0195115061263</v>
+        <v>-108.6653117792498</v>
       </c>
       <c r="D13">
-        <v>-6.521668613679211</v>
+        <v>-3.439864253854062</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4248,10 +4306,10 @@
         <v>15548</v>
       </c>
       <c r="C14">
-        <v>-4469.419535236265</v>
+        <v>-5528.493820131321</v>
       </c>
       <c r="D14">
-        <v>-28.74594504268244</v>
+        <v>-35.55758824370543</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4262,10 +4320,10 @@
         <v>27318</v>
       </c>
       <c r="C15">
-        <v>-9256.376308927445</v>
+        <v>-7134.274696831231</v>
       </c>
       <c r="D15">
-        <v>-33.88379935913114</v>
+        <v>-26.11565523402603</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4276,10 +4334,10 @@
         <v>15296</v>
       </c>
       <c r="C16">
-        <v>-4501.982682192333</v>
+        <v>-3632.702720178023</v>
       </c>
       <c r="D16">
-        <v>-29.43241816286828</v>
+        <v>-23.74936401790026</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4290,10 +4348,10 @@
         <v>10978</v>
       </c>
       <c r="C17">
-        <v>-738.7567656568602</v>
+        <v>-1555.428676440469</v>
       </c>
       <c r="D17">
-        <v>-6.729429455792133</v>
+        <v>-14.16859789069475</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4304,10 +4362,10 @@
         <v>27370</v>
       </c>
       <c r="C18">
-        <v>-1052.996924431389</v>
+        <v>-3399.930583697661</v>
       </c>
       <c r="D18">
-        <v>-3.847266804645191</v>
+        <v>-12.42210662658992</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -4318,10 +4376,10 @@
         <v>8095</v>
       </c>
       <c r="C19">
-        <v>-451.3424654089787</v>
+        <v>-2004.120306908981</v>
       </c>
       <c r="D19">
-        <v>-5.57557091302012</v>
+        <v>-24.75750842382929</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -4332,10 +4390,10 @@
         <v>56277</v>
       </c>
       <c r="C20">
-        <v>-6730.300981716526</v>
+        <v>-18326.21666173941</v>
       </c>
       <c r="D20">
-        <v>-11.95923908828922</v>
+        <v>-32.56430986324682</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -4346,10 +4404,10 @@
         <v>9990</v>
       </c>
       <c r="C21">
-        <v>-1121.72513733321</v>
+        <v>-2506.295823914443</v>
       </c>
       <c r="D21">
-        <v>-11.22847985318529</v>
+        <v>-25.08804628542985</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -4360,10 +4418,10 @@
         <v>26864</v>
       </c>
       <c r="C22">
-        <v>-1148.423851722117</v>
+        <v>-3479.328906254215</v>
       </c>
       <c r="D22">
-        <v>-4.274954778596326</v>
+        <v>-12.95164125317977</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -4374,10 +4432,10 @@
         <v>18757</v>
       </c>
       <c r="C23">
-        <v>-602.4288107530671</v>
+        <v>-1772.358035157307</v>
       </c>
       <c r="D23">
-        <v>-3.211754602298166</v>
+        <v>-9.449048542716358</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -4388,10 +4446,10 @@
         <v>11398</v>
       </c>
       <c r="C24">
-        <v>-319.3051132962019</v>
+        <v>-952.9921396570087</v>
       </c>
       <c r="D24">
-        <v>-2.801413522514493</v>
+        <v>-8.361047022784774</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -4402,10 +4460,10 @@
         <v>30399</v>
       </c>
       <c r="C25">
-        <v>2995.981959427404</v>
+        <v>-1780.925701950206</v>
       </c>
       <c r="D25">
-        <v>9.855528008906226</v>
+        <v>-5.858500943946202</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -4416,10 +4474,10 @@
         <v>29234</v>
       </c>
       <c r="C26">
-        <v>-2453.533807594768</v>
+        <v>-6582.083936869096</v>
       </c>
       <c r="D26">
-        <v>-8.392740670434318</v>
+        <v>-22.51516705503556</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -4430,10 +4488,10 @@
         <v>22664</v>
       </c>
       <c r="C27">
-        <v>-782.3974001809391</v>
+        <v>-3117.558118085923</v>
       </c>
       <c r="D27">
-        <v>-3.452159372489142</v>
+        <v>-13.7555511740466</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -4444,10 +4502,10 @@
         <v>19294</v>
       </c>
       <c r="C28">
-        <v>-737.0848765434922</v>
+        <v>-3453.036447393317</v>
       </c>
       <c r="D28">
-        <v>-3.820280276477102</v>
+        <v>-17.89694437334569</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -4458,10 +4516,10 @@
         <v>12414</v>
       </c>
       <c r="C29">
-        <v>-549.724568295158</v>
+        <v>-2212.595307594435</v>
       </c>
       <c r="D29">
-        <v>-4.428262995772176</v>
+        <v>-17.82338736583241</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -4472,10 +4530,10 @@
         <v>32059</v>
       </c>
       <c r="C30">
-        <v>-2027.468858102514</v>
+        <v>-5762.654768567681</v>
       </c>
       <c r="D30">
-        <v>-6.324179974741925</v>
+        <v>-17.97515446073702</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -4486,10 +4544,10 @@
         <v>16999</v>
       </c>
       <c r="C31">
-        <v>-1105.544030412877</v>
+        <v>-2131.491383781016</v>
       </c>
       <c r="D31">
-        <v>-6.503582742590017</v>
+        <v>-12.53892219413505</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -4500,10 +4558,10 @@
         <v>16434</v>
       </c>
       <c r="C32">
-        <v>-1005.556504174154</v>
+        <v>-2852.167825143556</v>
       </c>
       <c r="D32">
-        <v>-6.118756870963579</v>
+        <v>-17.35528675394643</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -4514,10 +4572,10 @@
         <v>37561</v>
       </c>
       <c r="C33">
-        <v>-615.5370146595342</v>
+        <v>-2725.197190288222</v>
       </c>
       <c r="D33">
-        <v>-1.638766312556998</v>
+        <v>-7.255390405708641</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -4528,10 +4586,10 @@
         <v>20032</v>
       </c>
       <c r="C34">
-        <v>-2774.945270131369</v>
+        <v>-3525.268658816583</v>
       </c>
       <c r="D34">
-        <v>-13.85256225105516</v>
+        <v>-17.59818619616905</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -4542,10 +4600,10 @@
         <v>23900</v>
       </c>
       <c r="C35">
-        <v>-2572.367960366294</v>
+        <v>-8704.776656569609</v>
       </c>
       <c r="D35">
-        <v>-10.7630458592732</v>
+        <v>-36.42165965091887</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -4556,10 +4614,10 @@
         <v>12849</v>
       </c>
       <c r="C36">
-        <v>-904.4423499855836</v>
+        <v>-1907.480161837262</v>
       </c>
       <c r="D36">
-        <v>-7.039009650444266</v>
+        <v>-14.84535887491059</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -4570,10 +4628,10 @@
         <v>31360</v>
       </c>
       <c r="C37">
-        <v>-7288.381888592614</v>
+        <v>-3779.966835722183</v>
       </c>
       <c r="D37">
-        <v>-23.2410136753591</v>
+        <v>-12.05346567513451</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -4584,10 +4642,10 @@
         <v>26556</v>
       </c>
       <c r="C38">
-        <v>-1214.750652446829</v>
+        <v>-5435.013997448823</v>
       </c>
       <c r="D38">
-        <v>-4.574298284556518</v>
+        <v>-20.46623737554158</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -4598,10 +4656,10 @@
         <v>110371</v>
       </c>
       <c r="C39">
-        <v>-7889.390360700428</v>
+        <v>-32531.61298154738</v>
       </c>
       <c r="D39">
-        <v>-7.148064582816525</v>
+        <v>-29.47478321438365</v>
       </c>
     </row>
     <row r="40" spans="1:4">
@@ -4612,10 +4670,10 @@
         <v>45739</v>
       </c>
       <c r="C40">
-        <v>-5776.925975552638</v>
+        <v>-9054.203628851656</v>
       </c>
       <c r="D40">
-        <v>-12.63019737106766</v>
+        <v>-19.79536856698147</v>
       </c>
     </row>
     <row r="41" spans="1:4">
@@ -4626,10 +4684,10 @@
         <v>244711</v>
       </c>
       <c r="C41">
-        <v>-1067.59779233818</v>
+        <v>-7437.819882845472</v>
       </c>
       <c r="D41">
-        <v>-0.4362688200931629</v>
+        <v>-3.03943013711908</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -4640,10 +4698,10 @@
         <v>94794</v>
       </c>
       <c r="C42">
-        <v>-12107.27105230474</v>
+        <v>-16079.81997212294</v>
       </c>
       <c r="D42">
-        <v>-12.77219133310626</v>
+        <v>-16.96290901546822</v>
       </c>
     </row>
     <row r="43" spans="1:4">
@@ -4654,10 +4712,10 @@
         <v>651003</v>
       </c>
       <c r="C43">
-        <v>-29469.62104858645</v>
+        <v>-93017.92520986366</v>
       </c>
       <c r="D43">
-        <v>-4.526802648925803</v>
+        <v>-14.28840192900243</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -4668,10 +4726,10 @@
         <v>154160</v>
       </c>
       <c r="C44">
-        <v>-21767.21964462386</v>
+        <v>-42897.30767436513</v>
       </c>
       <c r="D44">
-        <v>-14.11988819708346</v>
+        <v>-27.82648396105678</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -4682,10 +4740,10 @@
         <v>9431</v>
       </c>
       <c r="C45">
-        <v>-346.9028524627059</v>
+        <v>-1592.419973021918</v>
       </c>
       <c r="D45">
-        <v>-3.678325230226974</v>
+        <v>-16.88495358945942</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -4696,10 +4754,10 @@
         <v>10042</v>
       </c>
       <c r="C46">
-        <v>-1553.964907456052</v>
+        <v>-2548.350148699999</v>
       </c>
       <c r="D46">
-        <v>-15.47465552137076</v>
+        <v>-25.37691842959569</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -4710,10 +4768,10 @@
         <v>71898</v>
       </c>
       <c r="C47">
-        <v>-2378.788506231082</v>
+        <v>-13761.39574130907</v>
       </c>
       <c r="D47">
-        <v>-3.308560052061368</v>
+        <v>-19.14016487427894</v>
       </c>
     </row>
     <row r="48" spans="1:4">
@@ -4724,10 +4782,10 @@
         <v>13326</v>
       </c>
       <c r="C48">
-        <v>-1933.654434267401</v>
+        <v>-3302.473045360459</v>
       </c>
       <c r="D48">
-        <v>-14.51038897093953</v>
+        <v>-24.78217803812441</v>
       </c>
     </row>
     <row r="49" spans="1:4">
@@ -4738,10 +4796,10 @@
         <v>124201</v>
       </c>
       <c r="C49">
-        <v>-39951.18364116679</v>
+        <v>-31809.92894406856</v>
       </c>
       <c r="D49">
-        <v>-32.16655553591903</v>
+        <v>-25.61165284020947</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -4752,10 +4810,10 @@
         <v>8301</v>
       </c>
       <c r="C50">
-        <v>-100.50403064375</v>
+        <v>-1550.827739630479</v>
       </c>
       <c r="D50">
-        <v>-1.210746062447296</v>
+        <v>-18.68242066775664</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -4766,10 +4824,10 @@
         <v>17635</v>
       </c>
       <c r="C51">
-        <v>-1119.669420753334</v>
+        <v>-5210.657426513706</v>
       </c>
       <c r="D51">
-        <v>-6.34913195777337</v>
+        <v>-29.54724937064761</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -4780,10 +4838,10 @@
         <v>69191</v>
       </c>
       <c r="C52">
-        <v>-4271.616100591539</v>
+        <v>-8991.273540993017</v>
       </c>
       <c r="D52">
-        <v>-6.173658569165844</v>
+        <v>-12.99485993986648</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -4794,10 +4852,10 @@
         <v>99247</v>
       </c>
       <c r="C53">
-        <v>-1903.702124063441</v>
+        <v>-10367.14756172794</v>
       </c>
       <c r="D53">
-        <v>-1.918145761648656</v>
+        <v>-10.44580446938239</v>
       </c>
     </row>
     <row r="54" spans="1:4">
@@ -4808,10 +4866,10 @@
         <v>429463</v>
       </c>
       <c r="C54">
-        <v>-11291.9697299201</v>
+        <v>-41172.13990940098</v>
       </c>
       <c r="D54">
-        <v>-2.629323068557733</v>
+        <v>-9.5868887213569</v>
       </c>
     </row>
     <row r="55" spans="1:4">
@@ -4822,10 +4880,10 @@
         <v>558042</v>
       </c>
       <c r="C55">
-        <v>-77556.45908934456</v>
+        <v>-20542.90777958326</v>
       </c>
       <c r="D55">
-        <v>-13.89796092217872</v>
+        <v>-3.681247608528258</v>
       </c>
     </row>
     <row r="56" spans="1:4">
@@ -4836,10 +4894,10 @@
         <v>146107</v>
       </c>
       <c r="C56">
-        <v>-6811.635763055234</v>
+        <v>-29420.8476291181</v>
       </c>
       <c r="D56">
-        <v>-4.662087212149475</v>
+        <v>-20.13650792167254</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -4850,10 +4908,10 @@
         <v>34316</v>
       </c>
       <c r="C57">
-        <v>-679.7613107972584</v>
+        <v>-3831.77213779434</v>
       </c>
       <c r="D57">
-        <v>-1.980887372646166</v>
+        <v>-11.16613864609611</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -4864,10 +4922,10 @@
         <v>34966</v>
       </c>
       <c r="C58">
-        <v>-2143.177041099865</v>
+        <v>-8060.504941025857</v>
       </c>
       <c r="D58">
-        <v>-6.129317168391765</v>
+        <v>-23.05240788487633</v>
       </c>
     </row>
     <row r="59" spans="1:4">
@@ -4878,10 +4936,10 @@
         <v>27797</v>
       </c>
       <c r="C59">
-        <v>-1457.53756352636</v>
+        <v>-6140.121761207045</v>
       </c>
       <c r="D59">
-        <v>-5.243506722043242</v>
+        <v>-22.08915264671383</v>
       </c>
     </row>
     <row r="60" spans="1:4">
@@ -4892,10 +4950,10 @@
         <v>165500</v>
       </c>
       <c r="C60">
-        <v>-5766.1370571005</v>
+        <v>-27517.93030108715</v>
       </c>
       <c r="D60">
-        <v>-3.484070729365861</v>
+        <v>-16.62714821817955</v>
       </c>
     </row>
     <row r="61" spans="1:4">
@@ -4906,10 +4964,10 @@
         <v>34328</v>
       </c>
       <c r="C61">
-        <v>-1457.549491414732</v>
+        <v>-7375.624026490555</v>
       </c>
       <c r="D61">
-        <v>-4.245949345766522</v>
+        <v>-21.48573766747423</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -4920,10 +4978,10 @@
         <v>587600</v>
       </c>
       <c r="C62">
-        <v>-950.5716764333472</v>
+        <v>-6134.502851974206</v>
       </c>
       <c r="D62">
-        <v>-0.1617718986442048</v>
+        <v>-1.04399299727267</v>
       </c>
     </row>
     <row r="63" spans="1:4">
@@ -4934,10 +4992,10 @@
         <v>283544</v>
       </c>
       <c r="C63">
-        <v>-64.40307733840072</v>
+        <v>-322.1997765701756</v>
       </c>
       <c r="D63">
-        <v>-0.02271360964732131</v>
+        <v>-0.1136330786651016</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -4948,10 +5006,10 @@
         <v>93778</v>
       </c>
       <c r="C64">
-        <v>-526.4117095581445</v>
+        <v>-15859.43091011762</v>
       </c>
       <c r="D64">
-        <v>-0.5613381705284229</v>
+        <v>-16.91167535042081</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -4962,10 +5020,10 @@
         <v>129831</v>
       </c>
       <c r="C65">
-        <v>121.770452755328</v>
+        <v>34.81510277772396</v>
       </c>
       <c r="D65">
-        <v>0.09379150800296385</v>
+        <v>0.02681570871188234</v>
       </c>
     </row>
     <row r="66" spans="1:4">
@@ -4976,10 +5034,10 @@
         <v>150658</v>
       </c>
       <c r="C66">
-        <v>11788.3594948692</v>
+        <v>4972.287686986964</v>
       </c>
       <c r="D66">
-        <v>7.824582494702701</v>
+        <v>3.300380787603024</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -4990,10 +5048,10 @@
         <v>21426</v>
       </c>
       <c r="C67">
-        <v>-6807.482494127922</v>
+        <v>-6233.87125004754</v>
       </c>
       <c r="D67">
-        <v>-31.77206428697808</v>
+        <v>-29.09489055375497</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -5004,10 +5062,10 @@
         <v>77821</v>
       </c>
       <c r="C68">
-        <v>-11512.28165302244</v>
+        <v>-13450.54545186254</v>
       </c>
       <c r="D68">
-        <v>-14.79328414312646</v>
+        <v>-17.28395349823639</v>
       </c>
     </row>
     <row r="69" spans="1:4">
@@ -5031,99 +5089,387 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
         <v>82</v>
       </c>
+      <c r="B2">
+        <v>200103</v>
+      </c>
+      <c r="C2">
+        <v>-6365.063213821508</v>
+      </c>
+      <c r="D2">
+        <v>-3.180893446785659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3">
+        <v>75386</v>
+      </c>
+      <c r="C3">
+        <v>1707.498153385993</v>
+      </c>
+      <c r="D3">
+        <v>2.265006968649343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B4">
+        <v>27482</v>
+      </c>
+      <c r="C4">
+        <v>-2364.325335946156</v>
+      </c>
+      <c r="D4">
+        <v>-8.603177847122319</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5">
+        <v>90577</v>
+      </c>
+      <c r="C5">
+        <v>-14734.32617217755</v>
+      </c>
+      <c r="D5">
+        <v>-16.26718280819364</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B6">
+        <v>705533</v>
+      </c>
+      <c r="C6">
+        <v>-109800.490355285</v>
+      </c>
+      <c r="D6">
+        <v>-15.56277174211341</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B7">
+        <v>156110</v>
+      </c>
+      <c r="C7">
+        <v>-41585.81661039903</v>
+      </c>
+      <c r="D7">
+        <v>-26.63879098738007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8">
+        <v>244711</v>
+      </c>
+      <c r="C8">
+        <v>-7437.819882845472</v>
+      </c>
+      <c r="D8">
+        <v>-3.03943013711908</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9">
+        <v>745797</v>
+      </c>
+      <c r="C9">
+        <v>-109097.7451819866</v>
+      </c>
+      <c r="D9">
+        <v>-14.62834325989332</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10">
+        <v>245531</v>
+      </c>
+      <c r="C10">
+        <v>-60799.47353739612</v>
+      </c>
+      <c r="D10">
+        <v>-24.76244284322392</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>137527</v>
+      </c>
+      <c r="C11">
+        <v>-35112.40198942902</v>
+      </c>
+      <c r="D11">
+        <v>-25.53127894117448</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>194374</v>
+      </c>
+      <c r="C12">
+        <v>-26119.90626886515</v>
+      </c>
+      <c r="D12">
+        <v>-13.43796303459575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B13">
+        <v>429463</v>
+      </c>
+      <c r="C13">
+        <v>-41172.13990940098</v>
+      </c>
+      <c r="D13">
+        <v>-9.5868887213569</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B14">
+        <v>558042</v>
+      </c>
+      <c r="C14">
+        <v>-20542.90777958326</v>
+      </c>
+      <c r="D14">
+        <v>-3.681247608528258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
+        <v>443014</v>
+      </c>
+      <c r="C15">
+        <v>-82346.80079672304</v>
+      </c>
+      <c r="D15">
+        <v>-18.58785519119554</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B16">
+        <v>1000975</v>
+      </c>
+      <c r="C16">
+        <v>-6421.887525766658</v>
+      </c>
+      <c r="D16">
+        <v>-0.6415632284289475</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B17">
+        <v>244436</v>
+      </c>
+      <c r="C17">
+        <v>-10887.14322313066</v>
+      </c>
+      <c r="D17">
+        <v>-4.453985183496155</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B18">
+        <v>99247</v>
+      </c>
+      <c r="C18">
+        <v>-19684.41670191008</v>
+      </c>
+      <c r="D18">
+        <v>-19.83376495199863</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B19">
+        <v>71458</v>
+      </c>
+      <c r="C19">
+        <v>-10718.7</v>
+      </c>
+      <c r="D19">
+        <v>-15.00000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="B1" s="1" t="s">
+        <v>100</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>84</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>86</v>
+        <v>104</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>105</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="B2">
+        <v>5669766</v>
+      </c>
+      <c r="C2">
         <v>11018253</v>
       </c>
-      <c r="C2">
-        <v>5669766</v>
-      </c>
       <c r="D2">
+        <v>424895.3830728257</v>
+      </c>
+      <c r="E2">
         <v>2132288</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>547170</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>2920472</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>101617017</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B3">
-        <v>-670431.6030715498</v>
+        <v>-603483.8663312802</v>
       </c>
       <c r="C3">
-        <v>-323031.3128961701</v>
+        <v>-1365485.133550792</v>
       </c>
       <c r="D3">
-        <v>-152547.5602581378</v>
+        <v>-67348.27732223342</v>
       </c>
       <c r="E3">
-        <v>-35379.41726935226</v>
+        <v>-232049.1572247209</v>
       </c>
       <c r="F3">
-        <v>-130617.0632531079</v>
+        <v>-58991.55515883854</v>
       </c>
       <c r="G3">
-        <v>-7265527.126263685</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>-301278.3802502521</v>
+      </c>
+      <c r="H3">
+        <v>-12042262.4839466</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B4">
-        <v>-6.084735965597721</v>
+        <v>-10.64389370445412</v>
       </c>
       <c r="C4">
-        <v>-5.697436417943353</v>
+        <v>-12.39293682538232</v>
       </c>
       <c r="D4">
-        <v>-7.154172431591689</v>
+        <v>-15.85055522024586</v>
       </c>
       <c r="E4">
-        <v>-6.465891271332905</v>
+        <v>-10.88263673690988</v>
       </c>
       <c r="F4">
-        <v>-4.472464151449076</v>
+        <v>-10.78121153550789</v>
       </c>
       <c r="G4">
-        <v>-7.149911836384337</v>
+        <v>-10.31608521671333</v>
+      </c>
+      <c r="H4">
+        <v>-11.85063569022755</v>
       </c>
     </row>
   </sheetData>
